--- a/oppgaver/oppgave12/a.xlsx
+++ b/oppgaver/oppgave12/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\school\3rd_semester\Algmet\oppgaver\oppgave12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798DA30-8E8A-4026-A616-915F534FEBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA11E3-EECF-44FF-A76C-766D7B8F5AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15825" yWindow="4740" windowWidth="28800" windowHeight="15435" xr2:uid="{DA34801A-A1D1-4D21-A4B5-2C59345A7567}"/>
+    <workbookView xWindow="17295" yWindow="2865" windowWidth="28800" windowHeight="15435" xr2:uid="{DA34801A-A1D1-4D21-A4B5-2C59345A7567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t xml:space="preserve">Quick sort oppgave 12 </t>
   </si>
@@ -142,12 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6BD7F9-1296-40E6-B641-86650071FAB5}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +691,7 @@
       <c r="L15" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -745,7 +744,7 @@
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" t="s">
         <v>8</v>
       </c>
       <c r="K20" t="s">
@@ -754,7 +753,7 @@
       <c r="L20" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -805,10 +804,10 @@
       <c r="H26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" t="s">
         <v>8</v>
       </c>
       <c r="K26" t="s">
@@ -817,7 +816,7 @@
       <c r="L26" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -838,40 +837,6 @@
       </c>
       <c r="G28" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
